--- a/experiments/500kannangraph.xlsx
+++ b/experiments/500kannangraph.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,14 +8,27 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\jjavillo\gems\Geometric-LWE-Estimator\experiments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{9714C3B9-D4AD-4B17-A1AA-4B33998868DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C1A7F71-CC28-447F-A9C0-39F38C1727DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18000"/>
+    <workbookView xWindow="760" yWindow="760" windowWidth="19200" windowHeight="9970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="500kannan" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -42,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Predicted Beta</t>
   </si>
@@ -67,11 +80,14 @@
   <si>
     <t>Frequency/500</t>
   </si>
+  <si>
+    <t>Norm Variance</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -4793,22 +4809,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I501"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:T501"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V7" sqref="V7"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="91" zoomScaleNormal="91" workbookViewId="0">
+      <selection activeCell="T4" sqref="T4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="5" max="5" width="15.23046875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.765625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.07421875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.3046875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.26953125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7265625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.08984375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.35">
       <c r="B1" t="s">
         <v>0</v>
       </c>
@@ -4834,7 +4850,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>0</v>
       </c>
@@ -4867,7 +4883,7 @@
         <v>252.69096994399999</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>1</v>
       </c>
@@ -4898,8 +4914,11 @@
       <c r="I3">
         <v>150.275504112243</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="T3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>2</v>
       </c>
@@ -4930,8 +4949,12 @@
       <c r="I4">
         <v>118.762986898422</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="T4">
+        <f>VAR(G2:G501)</f>
+        <v>2271.2218797595192</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>3</v>
       </c>
@@ -4963,7 +4986,7 @@
         <v>108.346635103225</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>4</v>
       </c>
@@ -4995,7 +5018,7 @@
         <v>108.35188579559301</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>5</v>
       </c>
@@ -5027,7 +5050,7 @@
         <v>123.96335697174</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>6</v>
       </c>
@@ -5059,7 +5082,7 @@
         <v>189.78727579116801</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A9">
         <v>7</v>
       </c>
@@ -5091,7 +5114,7 @@
         <v>129.71557807922301</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A10">
         <v>8</v>
       </c>
@@ -5123,7 +5146,7 @@
         <v>234.97100210189799</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A11">
         <v>9</v>
       </c>
@@ -5155,7 +5178,7 @@
         <v>120.27700734138401</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A12">
         <v>10</v>
       </c>
@@ -5187,7 +5210,7 @@
         <v>104.349152088165</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A13">
         <v>11</v>
       </c>
@@ -5219,7 +5242,7 @@
         <v>8731.6022429466193</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A14">
         <v>12</v>
       </c>
@@ -5251,7 +5274,7 @@
         <v>78.108370304107595</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A15">
         <v>13</v>
       </c>
@@ -5283,7 +5306,7 @@
         <v>51.300906181335399</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.35">
       <c r="A16">
         <v>14</v>
       </c>
@@ -5315,7 +5338,7 @@
         <v>65.927233934402395</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A17">
         <v>15</v>
       </c>
@@ -5347,7 +5370,7 @@
         <v>86.508281230926499</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A18">
         <v>16</v>
       </c>
@@ -5379,7 +5402,7 @@
         <v>93.347188711166297</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A19">
         <v>17</v>
       </c>
@@ -5411,7 +5434,7 @@
         <v>68.515425205230699</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A20">
         <v>18</v>
       </c>
@@ -5443,7 +5466,7 @@
         <v>73.905696392059298</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A21">
         <v>19</v>
       </c>
@@ -5475,7 +5498,7 @@
         <v>60.591735363006499</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A22">
         <v>20</v>
       </c>
@@ -5507,7 +5530,7 @@
         <v>79.931993722915607</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A23">
         <v>21</v>
       </c>
@@ -5539,7 +5562,7 @@
         <v>87.078618288040104</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A24">
         <v>22</v>
       </c>
@@ -5571,7 +5594,7 @@
         <v>74.616660118102999</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>23</v>
       </c>
@@ -5603,7 +5626,7 @@
         <v>99.819420337677002</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>24</v>
       </c>
@@ -5635,7 +5658,7 @@
         <v>60.584767818450899</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>25</v>
       </c>
@@ -5667,7 +5690,7 @@
         <v>53.610699653625403</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>26</v>
       </c>
@@ -5699,7 +5722,7 @@
         <v>53.871000766754101</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>27</v>
       </c>
@@ -5731,7 +5754,7 @@
         <v>60.151326417922903</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>28</v>
       </c>
@@ -5763,7 +5786,7 @@
         <v>58.190931320190401</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>29</v>
       </c>
@@ -5795,7 +5818,7 @@
         <v>64.557259082794104</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>30</v>
       </c>
@@ -5827,7 +5850,7 @@
         <v>76.372294187545705</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>31</v>
       </c>
@@ -5859,7 +5882,7 @@
         <v>64.447150707244802</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>32</v>
       </c>
@@ -5891,7 +5914,7 @@
         <v>58.909592390060403</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A35">
         <v>33</v>
       </c>
@@ -5923,7 +5946,7 @@
         <v>60.820011138916001</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A36">
         <v>34</v>
       </c>
@@ -5955,7 +5978,7 @@
         <v>74.167906999587998</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A37">
         <v>35</v>
       </c>
@@ -5987,7 +6010,7 @@
         <v>62.093298912048297</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A38">
         <v>36</v>
       </c>
@@ -6019,7 +6042,7 @@
         <v>137.93292498588499</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A39">
         <v>37</v>
       </c>
@@ -6051,7 +6074,7 @@
         <v>49.494458198547299</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A40">
         <v>38</v>
       </c>
@@ -6083,7 +6106,7 @@
         <v>64.096767425537095</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A41">
         <v>39</v>
       </c>
@@ -6115,7 +6138,7 @@
         <v>57.633910655975299</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A42">
         <v>40</v>
       </c>
@@ -6147,7 +6170,7 @@
         <v>59.580843210220301</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A43">
         <v>41</v>
       </c>
@@ -6179,7 +6202,7 @@
         <v>60.080015420913597</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A44">
         <v>42</v>
       </c>
@@ -6211,7 +6234,7 @@
         <v>62.850172042846602</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A45">
         <v>43</v>
       </c>
@@ -6243,7 +6266,7 @@
         <v>90.117859840392995</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A46">
         <v>44</v>
       </c>
@@ -6275,7 +6298,7 @@
         <v>69.368266105651799</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A47">
         <v>45</v>
       </c>
@@ -6307,7 +6330,7 @@
         <v>70.614894866943303</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A48">
         <v>46</v>
       </c>
@@ -6339,7 +6362,7 @@
         <v>76.682332277297903</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A49">
         <v>47</v>
       </c>
@@ -6371,7 +6394,7 @@
         <v>71.3529856204986</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A50">
         <v>48</v>
       </c>
@@ -6403,7 +6426,7 @@
         <v>61.469415903091402</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A51">
         <v>49</v>
       </c>
@@ -6435,7 +6458,7 @@
         <v>55.6041100025177</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A52">
         <v>50</v>
       </c>
@@ -6467,7 +6490,7 @@
         <v>55.540633678436201</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A53">
         <v>51</v>
       </c>
@@ -6499,7 +6522,7 @@
         <v>62.853664875030503</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A54">
         <v>52</v>
       </c>
@@ -6531,7 +6554,7 @@
         <v>51.259094715118401</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A55">
         <v>53</v>
       </c>
@@ -6563,7 +6586,7 @@
         <v>47.018125772476097</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A56">
         <v>54</v>
       </c>
@@ -6595,7 +6618,7 @@
         <v>66.890713453292804</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A57">
         <v>55</v>
       </c>
@@ -6627,7 +6650,7 @@
         <v>61.073379755020099</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A58">
         <v>56</v>
       </c>
@@ -6659,7 +6682,7 @@
         <v>50.809229135513299</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A59">
         <v>57</v>
       </c>
@@ -6691,7 +6714,7 @@
         <v>148.615100383758</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A60">
         <v>58</v>
       </c>
@@ -6723,7 +6746,7 @@
         <v>74.548238277435303</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A61">
         <v>59</v>
       </c>
@@ -6755,7 +6778,7 @@
         <v>64.0183362960815</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A62">
         <v>60</v>
       </c>
@@ -6784,7 +6807,7 @@
         <v>75.603093385696397</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A63">
         <v>61</v>
       </c>
@@ -6813,7 +6836,7 @@
         <v>105.237169265747</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A64">
         <v>62</v>
       </c>
@@ -6842,7 +6865,7 @@
         <v>51.462615013122502</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A65">
         <v>63</v>
       </c>
@@ -6871,7 +6894,7 @@
         <v>189.673776626586</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A66">
         <v>64</v>
       </c>
@@ -6900,7 +6923,7 @@
         <v>65.759740829467702</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A67">
         <v>65</v>
       </c>
@@ -6929,7 +6952,7 @@
         <v>69.6012895107269</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A68">
         <v>66</v>
       </c>
@@ -6958,7 +6981,7 @@
         <v>63.8570971488952</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A69">
         <v>67</v>
       </c>
@@ -6987,7 +7010,7 @@
         <v>74.331978559494004</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A70">
         <v>68</v>
       </c>
@@ -7016,7 +7039,7 @@
         <v>78.678336858749304</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A71">
         <v>69</v>
       </c>
@@ -7045,7 +7068,7 @@
         <v>45.355597496032701</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A72">
         <v>70</v>
       </c>
@@ -7074,7 +7097,7 @@
         <v>73.739035367965698</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A73">
         <v>71</v>
       </c>
@@ -7103,7 +7126,7 @@
         <v>76.075032472610403</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A74">
         <v>72</v>
       </c>
@@ -7132,7 +7155,7 @@
         <v>62.693095445632899</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A75">
         <v>73</v>
       </c>
@@ -7161,7 +7184,7 @@
         <v>61.918664932250898</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A76">
         <v>74</v>
       </c>
@@ -7190,7 +7213,7 @@
         <v>68.239862680435095</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A77">
         <v>75</v>
       </c>
@@ -7219,7 +7242,7 @@
         <v>47.506683111190704</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A78">
         <v>76</v>
       </c>
@@ -7248,7 +7271,7 @@
         <v>64.619911909103394</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A79">
         <v>77</v>
       </c>
@@ -7277,7 +7300,7 @@
         <v>47.503538608550997</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A80">
         <v>78</v>
       </c>
@@ -7306,7 +7329,7 @@
         <v>74.923370361328097</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A81">
         <v>79</v>
       </c>
@@ -7335,7 +7358,7 @@
         <v>50.453353643417302</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A82">
         <v>80</v>
       </c>
@@ -7364,7 +7387,7 @@
         <v>61.142942190170203</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A83">
         <v>81</v>
       </c>
@@ -7393,7 +7416,7 @@
         <v>55.664192914962698</v>
       </c>
     </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A84">
         <v>82</v>
       </c>
@@ -7422,7 +7445,7 @@
         <v>63.850905179977403</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A85">
         <v>83</v>
       </c>
@@ -7451,7 +7474,7 @@
         <v>49.682400941848698</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A86">
         <v>84</v>
       </c>
@@ -7480,7 +7503,7 @@
         <v>60.076453447341898</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A87">
         <v>85</v>
       </c>
@@ -7509,7 +7532,7 @@
         <v>64.375001907348604</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A88">
         <v>86</v>
       </c>
@@ -7538,7 +7561,7 @@
         <v>64.231331348419104</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A89">
         <v>87</v>
       </c>
@@ -7567,7 +7590,7 @@
         <v>79.579093933105398</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A90">
         <v>88</v>
       </c>
@@ -7596,7 +7619,7 @@
         <v>69.422335147857595</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A91">
         <v>89</v>
       </c>
@@ -7625,7 +7648,7 @@
         <v>73.850786924362097</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A92">
         <v>90</v>
       </c>
@@ -7654,7 +7677,7 @@
         <v>58.507001876830998</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A93">
         <v>91</v>
       </c>
@@ -7683,7 +7706,7 @@
         <v>58.515610218048003</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A94">
         <v>92</v>
       </c>
@@ -7712,7 +7735,7 @@
         <v>56.025655031204202</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A95">
         <v>93</v>
       </c>
@@ -7741,7 +7764,7 @@
         <v>61.709631919860797</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A96">
         <v>94</v>
       </c>
@@ -7770,7 +7793,7 @@
         <v>67.025625228881793</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A97">
         <v>95</v>
       </c>
@@ -7799,7 +7822,7 @@
         <v>103.847281217575</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A98">
         <v>96</v>
       </c>
@@ -7828,7 +7851,7 @@
         <v>62.380284786224301</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A99">
         <v>97</v>
       </c>
@@ -7857,7 +7880,7 @@
         <v>60.422827005386303</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A100">
         <v>98</v>
       </c>
@@ -7886,7 +7909,7 @@
         <v>83.364665985107393</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A101">
         <v>99</v>
       </c>
@@ -7915,7 +7938,7 @@
         <v>61.460279226303101</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A102">
         <v>100</v>
       </c>
@@ -7944,7 +7967,7 @@
         <v>130.33064317703199</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A103">
         <v>101</v>
       </c>
@@ -7973,7 +7996,7 @@
         <v>72.0783176422119</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A104">
         <v>102</v>
       </c>
@@ -8002,7 +8025,7 @@
         <v>69.0689697265625</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A105">
         <v>103</v>
       </c>
@@ -8031,7 +8054,7 @@
         <v>79.748919010162297</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A106">
         <v>104</v>
       </c>
@@ -8060,7 +8083,7 @@
         <v>62.571693420410099</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A107">
         <v>105</v>
       </c>
@@ -8089,7 +8112,7 @@
         <v>84.559656143188406</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A108">
         <v>106</v>
       </c>
@@ -8118,7 +8141,7 @@
         <v>46.750952005386303</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A109">
         <v>107</v>
       </c>
@@ -8147,7 +8170,7 @@
         <v>70.264834880828801</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A110">
         <v>108</v>
       </c>
@@ -8176,7 +8199,7 @@
         <v>93.534266471862793</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A111">
         <v>109</v>
       </c>
@@ -8205,7 +8228,7 @@
         <v>64.492979288101196</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A112">
         <v>110</v>
       </c>
@@ -8234,7 +8257,7 @@
         <v>66.308393001556396</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A113">
         <v>111</v>
       </c>
@@ -8263,7 +8286,7 @@
         <v>55.927286386489797</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A114">
         <v>112</v>
       </c>
@@ -8292,7 +8315,7 @@
         <v>60.356235504150298</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A115">
         <v>113</v>
       </c>
@@ -8321,7 +8344,7 @@
         <v>52.589803218841503</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A116">
         <v>114</v>
       </c>
@@ -8350,7 +8373,7 @@
         <v>57.0713949203491</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A117">
         <v>115</v>
       </c>
@@ -8379,7 +8402,7 @@
         <v>66.945651531219397</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A118">
         <v>116</v>
       </c>
@@ -8408,7 +8431,7 @@
         <v>105.479817390441</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A119">
         <v>117</v>
       </c>
@@ -8437,7 +8460,7 @@
         <v>53.459371089935303</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A120">
         <v>118</v>
       </c>
@@ -8466,7 +8489,7 @@
         <v>82.406299352645803</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A121">
         <v>119</v>
       </c>
@@ -8495,7 +8518,7 @@
         <v>61.145785808563197</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A122">
         <v>120</v>
       </c>
@@ -8524,7 +8547,7 @@
         <v>61.555546998977597</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A123">
         <v>121</v>
       </c>
@@ -8553,7 +8576,7 @@
         <v>59.510530948638902</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="124" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A124">
         <v>122</v>
       </c>
@@ -8582,7 +8605,7 @@
         <v>67.191563129425006</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A125">
         <v>123</v>
       </c>
@@ -8611,7 +8634,7 @@
         <v>45.342207431793199</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="126" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A126">
         <v>124</v>
       </c>
@@ -8640,7 +8663,7 @@
         <v>61.703432559966998</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="127" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A127">
         <v>125</v>
       </c>
@@ -8669,7 +8692,7 @@
         <v>122.345808506011</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="128" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A128">
         <v>126</v>
       </c>
@@ -8698,7 +8721,7 @@
         <v>49.6836738586425</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A129">
         <v>127</v>
       </c>
@@ -8727,7 +8750,7 @@
         <v>82.787959575653005</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="130" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A130">
         <v>128</v>
       </c>
@@ -8756,7 +8779,7 @@
         <v>123.00876545906</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="131" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A131">
         <v>129</v>
       </c>
@@ -8785,7 +8808,7 @@
         <v>115.67066645622199</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="132" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A132">
         <v>130</v>
       </c>
@@ -8814,7 +8837,7 @@
         <v>71.718917369842501</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="133" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A133">
         <v>131</v>
       </c>
@@ -8843,7 +8866,7 @@
         <v>111.168143987655</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="134" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A134">
         <v>132</v>
       </c>
@@ -8872,7 +8895,7 @@
         <v>64.1198570728302</v>
       </c>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="135" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A135">
         <v>133</v>
       </c>
@@ -8901,7 +8924,7 @@
         <v>68.590399742126394</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="136" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A136">
         <v>134</v>
       </c>
@@ -8930,7 +8953,7 @@
         <v>85.147645711898804</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="137" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A137">
         <v>135</v>
       </c>
@@ -8959,7 +8982,7 @@
         <v>89.821257352828894</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="138" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A138">
         <v>136</v>
       </c>
@@ -8988,7 +9011,7 @@
         <v>66.221398353576603</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="139" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A139">
         <v>137</v>
       </c>
@@ -9017,7 +9040,7 @@
         <v>125.56789708137499</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="140" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A140">
         <v>138</v>
       </c>
@@ -9046,7 +9069,7 @@
         <v>66.670544624328599</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="141" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A141">
         <v>139</v>
       </c>
@@ -9075,7 +9098,7 @@
         <v>69.637159585952702</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="142" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A142">
         <v>140</v>
       </c>
@@ -9104,7 +9127,7 @@
         <v>57.905165672302203</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="143" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A143">
         <v>141</v>
       </c>
@@ -9133,7 +9156,7 @@
         <v>64.176642179489093</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="144" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A144">
         <v>142</v>
       </c>
@@ -9162,7 +9185,7 @@
         <v>54.967298746109002</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="145" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A145">
         <v>143</v>
       </c>
@@ -9191,7 +9214,7 @@
         <v>66.959219932556096</v>
       </c>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="146" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A146">
         <v>144</v>
       </c>
@@ -9220,7 +9243,7 @@
         <v>57.282155036926198</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="147" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A147">
         <v>145</v>
       </c>
@@ -9249,7 +9272,7 @@
         <v>58.716778993606503</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="148" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A148">
         <v>146</v>
       </c>
@@ -9278,7 +9301,7 @@
         <v>65.853507280349703</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="149" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A149">
         <v>147</v>
       </c>
@@ -9307,7 +9330,7 @@
         <v>57.109555959701503</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="150" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A150">
         <v>148</v>
       </c>
@@ -9336,7 +9359,7 @@
         <v>66.764836072921696</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="151" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A151">
         <v>149</v>
       </c>
@@ -9365,7 +9388,7 @@
         <v>66.700346708297701</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="152" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A152">
         <v>150</v>
       </c>
@@ -9394,7 +9417,7 @@
         <v>60.642374038696197</v>
       </c>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="153" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A153">
         <v>151</v>
       </c>
@@ -9423,7 +9446,7 @@
         <v>99.744644641876206</v>
       </c>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="154" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A154">
         <v>152</v>
       </c>
@@ -9452,7 +9475,7 @@
         <v>48.611783027648897</v>
       </c>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="155" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A155">
         <v>153</v>
       </c>
@@ -9481,7 +9504,7 @@
         <v>60.077055454254101</v>
       </c>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="156" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A156">
         <v>154</v>
       </c>
@@ -9510,7 +9533,7 @@
         <v>61.289359569549497</v>
       </c>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="157" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A157">
         <v>155</v>
       </c>
@@ -9539,7 +9562,7 @@
         <v>86.931064128875704</v>
       </c>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="158" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A158">
         <v>156</v>
       </c>
@@ -9568,7 +9591,7 @@
         <v>85.477400064468299</v>
       </c>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="159" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A159">
         <v>157</v>
       </c>
@@ -9597,7 +9620,7 @@
         <v>62.855582952499297</v>
       </c>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="160" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A160">
         <v>158</v>
       </c>
@@ -9626,7 +9649,7 @@
         <v>115.09874129295299</v>
       </c>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="161" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A161">
         <v>159</v>
       </c>
@@ -9655,7 +9678,7 @@
         <v>93.360168933868394</v>
       </c>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="162" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A162">
         <v>160</v>
       </c>
@@ -9684,7 +9707,7 @@
         <v>47.250605106353703</v>
       </c>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="163" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A163">
         <v>161</v>
       </c>
@@ -9713,7 +9736,7 @@
         <v>61.795756101608198</v>
       </c>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="164" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A164">
         <v>162</v>
       </c>
@@ -9742,7 +9765,7 @@
         <v>73.657441377639699</v>
       </c>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="165" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A165">
         <v>163</v>
       </c>
@@ -9771,7 +9794,7 @@
         <v>78.460743665695105</v>
       </c>
     </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="166" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A166">
         <v>164</v>
       </c>
@@ -9800,7 +9823,7 @@
         <v>56.333621025085399</v>
       </c>
     </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="167" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A167">
         <v>165</v>
       </c>
@@ -9829,7 +9852,7 @@
         <v>61.870424270629798</v>
       </c>
     </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="168" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A168">
         <v>166</v>
       </c>
@@ -9858,7 +9881,7 @@
         <v>74.141562223434406</v>
       </c>
     </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="169" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A169">
         <v>167</v>
       </c>
@@ -9887,7 +9910,7 @@
         <v>80.583644390106201</v>
       </c>
     </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="170" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A170">
         <v>168</v>
       </c>
@@ -9916,7 +9939,7 @@
         <v>57.144887208938599</v>
       </c>
     </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="171" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A171">
         <v>169</v>
       </c>
@@ -9945,7 +9968,7 @@
         <v>70.025573730468693</v>
       </c>
     </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="172" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A172">
         <v>170</v>
       </c>
@@ -9974,7 +9997,7 @@
         <v>69.513991832733097</v>
       </c>
     </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="173" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A173">
         <v>171</v>
       </c>
@@ -10003,7 +10026,7 @@
         <v>52.086163282394402</v>
       </c>
     </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="174" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A174">
         <v>172</v>
       </c>
@@ -10032,7 +10055,7 @@
         <v>61.890511751174898</v>
       </c>
     </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="175" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A175">
         <v>173</v>
       </c>
@@ -10061,7 +10084,7 @@
         <v>56.231817483901899</v>
       </c>
     </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="176" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A176">
         <v>174</v>
       </c>
@@ -10090,7 +10113,7 @@
         <v>49.779026031494098</v>
       </c>
     </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="177" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A177">
         <v>175</v>
       </c>
@@ -10119,7 +10142,7 @@
         <v>55.062844991683903</v>
       </c>
     </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="178" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A178">
         <v>176</v>
       </c>
@@ -10148,7 +10171,7 @@
         <v>55.482857227325397</v>
       </c>
     </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="179" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A179">
         <v>177</v>
       </c>
@@ -10177,7 +10200,7 @@
         <v>67.987785339355398</v>
       </c>
     </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="180" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A180">
         <v>178</v>
       </c>
@@ -10206,7 +10229,7 @@
         <v>64.977854490280095</v>
       </c>
     </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="181" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A181">
         <v>179</v>
       </c>
@@ -10235,7 +10258,7 @@
         <v>58.053382635116499</v>
       </c>
     </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="182" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A182">
         <v>180</v>
       </c>
@@ -10264,7 +10287,7 @@
         <v>56.730069160461397</v>
       </c>
     </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="183" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A183">
         <v>181</v>
       </c>
@@ -10293,7 +10316,7 @@
         <v>88.599290609359699</v>
       </c>
     </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="184" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A184">
         <v>182</v>
       </c>
@@ -10322,7 +10345,7 @@
         <v>66.405647754669104</v>
       </c>
     </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="185" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A185">
         <v>183</v>
       </c>
@@ -10351,7 +10374,7 @@
         <v>60.707043647766099</v>
       </c>
     </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="186" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A186">
         <v>184</v>
       </c>
@@ -10380,7 +10403,7 @@
         <v>75.442700862884493</v>
       </c>
     </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="187" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A187">
         <v>185</v>
       </c>
@@ -10409,7 +10432,7 @@
         <v>51.277781486511202</v>
       </c>
     </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="188" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A188">
         <v>186</v>
       </c>
@@ -10438,7 +10461,7 @@
         <v>132.75269460678101</v>
       </c>
     </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="189" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A189">
         <v>187</v>
       </c>
@@ -10467,7 +10490,7 @@
         <v>82.546201467513995</v>
       </c>
     </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="190" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A190">
         <v>188</v>
       </c>
@@ -10496,7 +10519,7 @@
         <v>61.245791435241699</v>
       </c>
     </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="191" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A191">
         <v>189</v>
       </c>
@@ -10525,7 +10548,7 @@
         <v>100.514450550079</v>
       </c>
     </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="192" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A192">
         <v>190</v>
       </c>
@@ -10554,7 +10577,7 @@
         <v>49.084251642227102</v>
       </c>
     </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="193" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A193">
         <v>191</v>
       </c>
@@ -10583,7 +10606,7 @@
         <v>76.927854299545203</v>
       </c>
     </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="194" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A194">
         <v>192</v>
       </c>
@@ -10612,7 +10635,7 @@
         <v>58.064174890518103</v>
       </c>
     </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="195" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A195">
         <v>193</v>
       </c>
@@ -10641,7 +10664,7 @@
         <v>75.763078689575195</v>
       </c>
     </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="196" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A196">
         <v>194</v>
       </c>
@@ -10670,7 +10693,7 @@
         <v>58.685140132904003</v>
       </c>
     </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="197" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A197">
         <v>195</v>
       </c>
@@ -10699,7 +10722,7 @@
         <v>117.23833322525</v>
       </c>
     </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="198" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A198">
         <v>196</v>
       </c>
@@ -10728,7 +10751,7 @@
         <v>113.21074771881101</v>
       </c>
     </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="199" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A199">
         <v>197</v>
       </c>
@@ -10757,7 +10780,7 @@
         <v>54.782621860504101</v>
       </c>
     </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="200" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A200">
         <v>198</v>
       </c>
@@ -10786,7 +10809,7 @@
         <v>99.165022373199406</v>
       </c>
     </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="201" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A201">
         <v>199</v>
       </c>
@@ -10815,7 +10838,7 @@
         <v>61.471101999282801</v>
       </c>
     </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="202" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A202">
         <v>200</v>
       </c>
@@ -10844,7 +10867,7 @@
         <v>52.9651551246643</v>
       </c>
     </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="203" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A203">
         <v>201</v>
       </c>
@@ -10873,7 +10896,7 @@
         <v>52.560653924942002</v>
       </c>
     </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="204" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A204">
         <v>202</v>
       </c>
@@ -10902,7 +10925,7 @@
         <v>62.4951105117797</v>
       </c>
     </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="205" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A205">
         <v>203</v>
       </c>
@@ -10931,7 +10954,7 @@
         <v>80.1582159996032</v>
       </c>
     </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="206" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A206">
         <v>204</v>
       </c>
@@ -10960,7 +10983,7 @@
         <v>123.21394896507201</v>
       </c>
     </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="207" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A207">
         <v>205</v>
       </c>
@@ -10989,7 +11012,7 @@
         <v>60.354787111282299</v>
       </c>
     </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="208" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A208">
         <v>206</v>
       </c>
@@ -11018,7 +11041,7 @@
         <v>43.735989332199097</v>
       </c>
     </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="209" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A209">
         <v>207</v>
       </c>
@@ -11047,7 +11070,7 @@
         <v>107.38492774963299</v>
       </c>
     </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="210" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A210">
         <v>208</v>
       </c>
@@ -11076,7 +11099,7 @@
         <v>79.755144834518404</v>
       </c>
     </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="211" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A211">
         <v>209</v>
       </c>
@@ -11105,7 +11128,7 @@
         <v>58.950453996658297</v>
       </c>
     </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="212" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A212">
         <v>210</v>
       </c>
@@ -11134,7 +11157,7 @@
         <v>55.108445644378598</v>
       </c>
     </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="213" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A213">
         <v>211</v>
       </c>
@@ -11163,7 +11186,7 @@
         <v>137.00455379485999</v>
       </c>
     </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="214" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A214">
         <v>212</v>
       </c>
@@ -11192,7 +11215,7 @@
         <v>59.658402681350701</v>
       </c>
     </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="215" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A215">
         <v>213</v>
       </c>
@@ -11221,7 +11244,7 @@
         <v>58.531278371810899</v>
       </c>
     </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="216" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A216">
         <v>214</v>
       </c>
@@ -11250,7 +11273,7 @@
         <v>89.730816125869694</v>
       </c>
     </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="217" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A217">
         <v>215</v>
       </c>
@@ -11279,7 +11302,7 @@
         <v>61.6847918033599</v>
       </c>
     </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="218" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A218">
         <v>216</v>
       </c>
@@ -11308,7 +11331,7 @@
         <v>67.742358207702594</v>
       </c>
     </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="219" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A219">
         <v>217</v>
       </c>
@@ -11337,7 +11360,7 @@
         <v>60.321792364120398</v>
       </c>
     </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="220" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A220">
         <v>218</v>
       </c>
@@ -11366,7 +11389,7 @@
         <v>56.570587635040198</v>
       </c>
     </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="221" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A221">
         <v>219</v>
       </c>
@@ -11395,7 +11418,7 @@
         <v>59.673962593078599</v>
       </c>
     </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="222" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A222">
         <v>220</v>
       </c>
@@ -11424,7 +11447,7 @@
         <v>88.343364477157493</v>
       </c>
     </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="223" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A223">
         <v>221</v>
       </c>
@@ -11453,7 +11476,7 @@
         <v>53.759125232696498</v>
       </c>
     </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="224" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A224">
         <v>222</v>
       </c>
@@ -11482,7 +11505,7 @@
         <v>64.315206289291297</v>
       </c>
     </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="225" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A225">
         <v>223</v>
       </c>
@@ -11511,7 +11534,7 @@
         <v>60.279227018356302</v>
       </c>
     </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="226" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A226">
         <v>224</v>
       </c>
@@ -11540,7 +11563,7 @@
         <v>62.012707710266099</v>
       </c>
     </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="227" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A227">
         <v>225</v>
       </c>
@@ -11569,7 +11592,7 @@
         <v>60.067030668258603</v>
       </c>
     </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="228" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A228">
         <v>226</v>
       </c>
@@ -11598,7 +11621,7 @@
         <v>61.178799390792797</v>
       </c>
     </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="229" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A229">
         <v>227</v>
       </c>
@@ -11627,7 +11650,7 @@
         <v>59.372264862060497</v>
       </c>
     </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="230" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A230">
         <v>228</v>
       </c>
@@ -11656,7 +11679,7 @@
         <v>68.750744342803898</v>
       </c>
     </row>
-    <row r="231" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="231" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A231">
         <v>229</v>
       </c>
@@ -11685,7 +11708,7 @@
         <v>98.844575881957994</v>
       </c>
     </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="232" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A232">
         <v>230</v>
       </c>
@@ -11714,7 +11737,7 @@
         <v>48.548030138015697</v>
       </c>
     </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="233" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A233">
         <v>231</v>
       </c>
@@ -11743,7 +11766,7 @@
         <v>67.046880245208698</v>
       </c>
     </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="234" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A234">
         <v>232</v>
       </c>
@@ -11772,7 +11795,7 @@
         <v>57.026149511337202</v>
       </c>
     </row>
-    <row r="235" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="235" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A235">
         <v>233</v>
       </c>
@@ -11801,7 +11824,7 @@
         <v>61.087241411209099</v>
       </c>
     </row>
-    <row r="236" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="236" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A236">
         <v>234</v>
       </c>
@@ -11830,7 +11853,7 @@
         <v>135.746840238571</v>
       </c>
     </row>
-    <row r="237" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="237" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A237">
         <v>235</v>
       </c>
@@ -11859,7 +11882,7 @@
         <v>54.383404731750403</v>
       </c>
     </row>
-    <row r="238" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="238" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A238">
         <v>236</v>
       </c>
@@ -11888,7 +11911,7 @@
         <v>50.8163483142852</v>
       </c>
     </row>
-    <row r="239" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="239" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A239">
         <v>237</v>
       </c>
@@ -11917,7 +11940,7 @@
         <v>62.451488018035803</v>
       </c>
     </row>
-    <row r="240" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="240" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A240">
         <v>238</v>
       </c>
@@ -11946,7 +11969,7 @@
         <v>58.642599344253497</v>
       </c>
     </row>
-    <row r="241" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="241" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A241">
         <v>239</v>
       </c>
@@ -11975,7 +11998,7 @@
         <v>61.187478303909302</v>
       </c>
     </row>
-    <row r="242" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="242" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A242">
         <v>240</v>
       </c>
@@ -12004,7 +12027,7 @@
         <v>63.740938901901202</v>
       </c>
     </row>
-    <row r="243" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="243" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A243">
         <v>241</v>
       </c>
@@ -12033,7 +12056,7 @@
         <v>55.545510292053201</v>
       </c>
     </row>
-    <row r="244" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="244" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A244">
         <v>242</v>
       </c>
@@ -12062,7 +12085,7 @@
         <v>122.829701185226</v>
       </c>
     </row>
-    <row r="245" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="245" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A245">
         <v>243</v>
       </c>
@@ -12091,7 +12114,7 @@
         <v>54.923094272613497</v>
       </c>
     </row>
-    <row r="246" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="246" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A246">
         <v>244</v>
       </c>
@@ -12120,7 +12143,7 @@
         <v>91.496357202529893</v>
       </c>
     </row>
-    <row r="247" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="247" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A247">
         <v>245</v>
       </c>
@@ -12149,7 +12172,7 @@
         <v>61.239553451538001</v>
       </c>
     </row>
-    <row r="248" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="248" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A248">
         <v>246</v>
       </c>
@@ -12178,7 +12201,7 @@
         <v>60.388374090194702</v>
       </c>
     </row>
-    <row r="249" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="249" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A249">
         <v>247</v>
       </c>
@@ -12207,7 +12230,7 @@
         <v>54.224959850311201</v>
       </c>
     </row>
-    <row r="250" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="250" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A250">
         <v>248</v>
       </c>
@@ -12236,7 +12259,7 @@
         <v>67.6844322681427</v>
       </c>
     </row>
-    <row r="251" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="251" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A251">
         <v>249</v>
       </c>
@@ -12265,7 +12288,7 @@
         <v>65.845710039138794</v>
       </c>
     </row>
-    <row r="252" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="252" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A252">
         <v>250</v>
       </c>
@@ -12294,7 +12317,7 @@
         <v>62.360410690307603</v>
       </c>
     </row>
-    <row r="253" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="253" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A253">
         <v>251</v>
       </c>
@@ -12323,7 +12346,7 @@
         <v>57.3153686523437</v>
       </c>
     </row>
-    <row r="254" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="254" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A254">
         <v>252</v>
       </c>
@@ -12352,7 +12375,7 @@
         <v>120.787429332733</v>
       </c>
     </row>
-    <row r="255" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="255" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A255">
         <v>253</v>
       </c>
@@ -12381,7 +12404,7 @@
         <v>64.899961233138995</v>
       </c>
     </row>
-    <row r="256" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="256" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A256">
         <v>254</v>
       </c>
@@ -12410,7 +12433,7 @@
         <v>62.150339365005401</v>
       </c>
     </row>
-    <row r="257" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="257" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A257">
         <v>255</v>
       </c>
@@ -12439,7 +12462,7 @@
         <v>87.334263086318899</v>
       </c>
     </row>
-    <row r="258" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="258" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A258">
         <v>256</v>
       </c>
@@ -12468,7 +12491,7 @@
         <v>96.703036069869995</v>
       </c>
     </row>
-    <row r="259" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="259" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A259">
         <v>257</v>
       </c>
@@ -12497,7 +12520,7 @@
         <v>80.233168601989703</v>
       </c>
     </row>
-    <row r="260" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="260" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A260">
         <v>258</v>
       </c>
@@ -12526,7 +12549,7 @@
         <v>115.364878177642</v>
       </c>
     </row>
-    <row r="261" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="261" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A261">
         <v>259</v>
       </c>
@@ -12555,7 +12578,7 @@
         <v>53.127025842666598</v>
       </c>
     </row>
-    <row r="262" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="262" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A262">
         <v>260</v>
       </c>
@@ -12584,7 +12607,7 @@
         <v>127.249665260314</v>
       </c>
     </row>
-    <row r="263" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="263" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A263">
         <v>261</v>
       </c>
@@ -12613,7 +12636,7 @@
         <v>64.698248624801593</v>
       </c>
     </row>
-    <row r="264" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="264" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A264">
         <v>262</v>
       </c>
@@ -12642,7 +12665,7 @@
         <v>52.174465179443303</v>
       </c>
     </row>
-    <row r="265" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="265" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A265">
         <v>263</v>
       </c>
@@ -12671,7 +12694,7 @@
         <v>61.255954265594397</v>
       </c>
     </row>
-    <row r="266" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="266" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A266">
         <v>264</v>
       </c>
@@ -12700,7 +12723,7 @@
         <v>64.025170087814303</v>
       </c>
     </row>
-    <row r="267" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="267" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A267">
         <v>265</v>
       </c>
@@ -12729,7 +12752,7 @@
         <v>72.933206558227496</v>
       </c>
     </row>
-    <row r="268" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="268" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A268">
         <v>266</v>
       </c>
@@ -12758,7 +12781,7 @@
         <v>67.973775148391695</v>
       </c>
     </row>
-    <row r="269" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="269" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A269">
         <v>267</v>
       </c>
@@ -12787,7 +12810,7 @@
         <v>76.537244558334294</v>
       </c>
     </row>
-    <row r="270" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="270" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A270">
         <v>268</v>
       </c>
@@ -12816,7 +12839,7 @@
         <v>49.847032070159898</v>
       </c>
     </row>
-    <row r="271" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="271" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A271">
         <v>269</v>
       </c>
@@ -12845,7 +12868,7 @@
         <v>108.883873939514</v>
       </c>
     </row>
-    <row r="272" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="272" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A272">
         <v>270</v>
       </c>
@@ -12874,7 +12897,7 @@
         <v>90.823740959167395</v>
       </c>
     </row>
-    <row r="273" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="273" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A273">
         <v>271</v>
       </c>
@@ -12903,7 +12926,7 @@
         <v>118.147434234619</v>
       </c>
     </row>
-    <row r="274" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="274" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A274">
         <v>272</v>
       </c>
@@ -12932,7 +12955,7 @@
         <v>106.96100020408601</v>
       </c>
     </row>
-    <row r="275" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="275" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A275">
         <v>273</v>
       </c>
@@ -12961,7 +12984,7 @@
         <v>64.154096126556396</v>
       </c>
     </row>
-    <row r="276" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="276" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A276">
         <v>274</v>
       </c>
@@ -12990,7 +13013,7 @@
         <v>62.201230764389003</v>
       </c>
     </row>
-    <row r="277" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="277" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A277">
         <v>275</v>
       </c>
@@ -13019,7 +13042,7 @@
         <v>62.360103845596299</v>
       </c>
     </row>
-    <row r="278" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="278" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A278">
         <v>276</v>
       </c>
@@ -13048,7 +13071,7 @@
         <v>45.0601773262023</v>
       </c>
     </row>
-    <row r="279" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="279" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A279">
         <v>277</v>
       </c>
@@ -13077,7 +13100,7 @@
         <v>72.471953630447302</v>
       </c>
     </row>
-    <row r="280" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="280" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A280">
         <v>278</v>
       </c>
@@ -13106,7 +13129,7 @@
         <v>73.154152870178194</v>
       </c>
     </row>
-    <row r="281" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="281" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A281">
         <v>279</v>
       </c>
@@ -13135,7 +13158,7 @@
         <v>66.528224945068303</v>
       </c>
     </row>
-    <row r="282" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="282" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A282">
         <v>280</v>
       </c>
@@ -13164,7 +13187,7 @@
         <v>84.112246751785193</v>
       </c>
     </row>
-    <row r="283" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="283" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A283">
         <v>281</v>
       </c>
@@ -13193,7 +13216,7 @@
         <v>62.904117345809901</v>
       </c>
     </row>
-    <row r="284" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="284" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A284">
         <v>282</v>
       </c>
@@ -13222,7 +13245,7 @@
         <v>71.140712261199894</v>
       </c>
     </row>
-    <row r="285" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="285" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A285">
         <v>283</v>
       </c>
@@ -13251,7 +13274,7 @@
         <v>65.066873788833604</v>
       </c>
     </row>
-    <row r="286" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="286" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A286">
         <v>284</v>
       </c>
@@ -13280,7 +13303,7 @@
         <v>84.399280786514197</v>
       </c>
     </row>
-    <row r="287" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="287" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A287">
         <v>285</v>
       </c>
@@ -13309,7 +13332,7 @@
         <v>70.324070215225206</v>
       </c>
     </row>
-    <row r="288" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="288" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A288">
         <v>286</v>
       </c>
@@ -13338,7 +13361,7 @@
         <v>78.707051277160602</v>
       </c>
     </row>
-    <row r="289" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="289" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A289">
         <v>287</v>
       </c>
@@ -13367,7 +13390,7 @@
         <v>56.065479278564403</v>
       </c>
     </row>
-    <row r="290" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="290" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A290">
         <v>288</v>
       </c>
@@ -13396,7 +13419,7 @@
         <v>48.915838003158498</v>
       </c>
     </row>
-    <row r="291" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="291" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A291">
         <v>289</v>
       </c>
@@ -13425,7 +13448,7 @@
         <v>47.233865737915004</v>
       </c>
     </row>
-    <row r="292" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="292" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A292">
         <v>290</v>
       </c>
@@ -13454,7 +13477,7 @@
         <v>70.567953109741197</v>
       </c>
     </row>
-    <row r="293" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="293" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A293">
         <v>291</v>
       </c>
@@ -13483,7 +13506,7 @@
         <v>55.133519411087001</v>
       </c>
     </row>
-    <row r="294" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="294" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A294">
         <v>292</v>
       </c>
@@ -13512,7 +13535,7 @@
         <v>62.285175085067699</v>
       </c>
     </row>
-    <row r="295" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="295" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A295">
         <v>293</v>
       </c>
@@ -13541,7 +13564,7 @@
         <v>41.359277248382497</v>
       </c>
     </row>
-    <row r="296" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="296" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A296">
         <v>294</v>
       </c>
@@ -13570,7 +13593,7 @@
         <v>54.633716106414703</v>
       </c>
     </row>
-    <row r="297" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="297" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A297">
         <v>295</v>
       </c>
@@ -13599,7 +13622,7 @@
         <v>65.864240407943697</v>
       </c>
     </row>
-    <row r="298" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="298" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A298">
         <v>296</v>
       </c>
@@ -13628,7 +13651,7 @@
         <v>53.340533971786499</v>
       </c>
     </row>
-    <row r="299" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="299" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A299">
         <v>297</v>
       </c>
@@ -13657,7 +13680,7 @@
         <v>63.781080245971602</v>
       </c>
     </row>
-    <row r="300" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="300" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A300">
         <v>298</v>
       </c>
@@ -13686,7 +13709,7 @@
         <v>61.1765007972717</v>
       </c>
     </row>
-    <row r="301" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="301" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A301">
         <v>299</v>
       </c>
@@ -13715,7 +13738,7 @@
         <v>67.869612693786607</v>
       </c>
     </row>
-    <row r="302" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="302" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A302">
         <v>300</v>
       </c>
@@ -13744,7 +13767,7 @@
         <v>62.924825191497803</v>
       </c>
     </row>
-    <row r="303" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="303" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A303">
         <v>301</v>
       </c>
@@ -13773,7 +13796,7 @@
         <v>80.898648500442505</v>
       </c>
     </row>
-    <row r="304" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="304" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A304">
         <v>302</v>
       </c>
@@ -13802,7 +13825,7 @@
         <v>106.46807718276899</v>
       </c>
     </row>
-    <row r="305" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="305" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A305">
         <v>303</v>
       </c>
@@ -13831,7 +13854,7 @@
         <v>64.076316356658893</v>
       </c>
     </row>
-    <row r="306" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="306" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A306">
         <v>304</v>
       </c>
@@ -13860,7 +13883,7 @@
         <v>103.92599987983699</v>
       </c>
     </row>
-    <row r="307" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="307" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A307">
         <v>305</v>
       </c>
@@ -13889,7 +13912,7 @@
         <v>90.686207532882605</v>
       </c>
     </row>
-    <row r="308" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="308" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A308">
         <v>306</v>
       </c>
@@ -13918,7 +13941,7 @@
         <v>57.675652027130099</v>
       </c>
     </row>
-    <row r="309" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="309" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A309">
         <v>307</v>
       </c>
@@ -13947,7 +13970,7 @@
         <v>67.271455764770494</v>
       </c>
     </row>
-    <row r="310" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="310" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A310">
         <v>308</v>
       </c>
@@ -13976,7 +13999,7 @@
         <v>58.351292133331299</v>
       </c>
     </row>
-    <row r="311" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="311" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A311">
         <v>309</v>
       </c>
@@ -14005,7 +14028,7 @@
         <v>57.620240926742497</v>
       </c>
     </row>
-    <row r="312" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="312" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A312">
         <v>310</v>
       </c>
@@ -14034,7 +14057,7 @@
         <v>54.517073392867999</v>
       </c>
     </row>
-    <row r="313" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="313" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A313">
         <v>311</v>
       </c>
@@ -14063,7 +14086,7 @@
         <v>52.228319406509399</v>
       </c>
     </row>
-    <row r="314" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="314" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A314">
         <v>312</v>
       </c>
@@ -14092,7 +14115,7 @@
         <v>94.023367881774902</v>
       </c>
     </row>
-    <row r="315" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="315" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A315">
         <v>313</v>
       </c>
@@ -14121,7 +14144,7 @@
         <v>76.734872817993093</v>
       </c>
     </row>
-    <row r="316" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="316" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A316">
         <v>314</v>
       </c>
@@ -14150,7 +14173,7 @@
         <v>119.889019012451</v>
       </c>
     </row>
-    <row r="317" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="317" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A317">
         <v>315</v>
       </c>
@@ -14179,7 +14202,7 @@
         <v>64.245965957641602</v>
       </c>
     </row>
-    <row r="318" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="318" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A318">
         <v>316</v>
       </c>
@@ -14208,7 +14231,7 @@
         <v>63.707948207855203</v>
       </c>
     </row>
-    <row r="319" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="319" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A319">
         <v>317</v>
       </c>
@@ -14237,7 +14260,7 @@
         <v>82.256299734115601</v>
       </c>
     </row>
-    <row r="320" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="320" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A320">
         <v>318</v>
       </c>
@@ -14266,7 +14289,7 @@
         <v>55.431777715682898</v>
       </c>
     </row>
-    <row r="321" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="321" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A321">
         <v>319</v>
       </c>
@@ -14295,7 +14318,7 @@
         <v>96.484006404876695</v>
       </c>
     </row>
-    <row r="322" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="322" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A322">
         <v>320</v>
       </c>
@@ -14324,7 +14347,7 @@
         <v>73.125551223754798</v>
       </c>
     </row>
-    <row r="323" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="323" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A323">
         <v>321</v>
       </c>
@@ -14353,7 +14376,7 @@
         <v>105.298025846481</v>
       </c>
     </row>
-    <row r="324" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="324" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A324">
         <v>322</v>
       </c>
@@ -14382,7 +14405,7 @@
         <v>78.156202554702702</v>
       </c>
     </row>
-    <row r="325" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="325" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A325">
         <v>323</v>
       </c>
@@ -14411,7 +14434,7 @@
         <v>62.729449510574298</v>
       </c>
     </row>
-    <row r="326" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="326" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A326">
         <v>324</v>
       </c>
@@ -14440,7 +14463,7 @@
         <v>77.702416181564303</v>
       </c>
     </row>
-    <row r="327" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="327" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A327">
         <v>325</v>
       </c>
@@ -14469,7 +14492,7 @@
         <v>70.0874245166778</v>
       </c>
     </row>
-    <row r="328" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="328" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A328">
         <v>326</v>
       </c>
@@ -14498,7 +14521,7 @@
         <v>132.46380829811</v>
       </c>
     </row>
-    <row r="329" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="329" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A329">
         <v>327</v>
       </c>
@@ -14527,7 +14550,7 @@
         <v>48.044197082519503</v>
       </c>
     </row>
-    <row r="330" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="330" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A330">
         <v>328</v>
       </c>
@@ -14556,7 +14579,7 @@
         <v>65.354113817214895</v>
       </c>
     </row>
-    <row r="331" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="331" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A331">
         <v>329</v>
       </c>
@@ -14585,7 +14608,7 @@
         <v>60.418722629547098</v>
       </c>
     </row>
-    <row r="332" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="332" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A332">
         <v>330</v>
       </c>
@@ -14614,7 +14637,7 @@
         <v>58.527425527572603</v>
       </c>
     </row>
-    <row r="333" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="333" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A333">
         <v>331</v>
       </c>
@@ -14643,7 +14666,7 @@
         <v>65.609789609909001</v>
       </c>
     </row>
-    <row r="334" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="334" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A334">
         <v>332</v>
       </c>
@@ -14672,7 +14695,7 @@
         <v>75.604245901107703</v>
       </c>
     </row>
-    <row r="335" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="335" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A335">
         <v>333</v>
       </c>
@@ -14701,7 +14724,7 @@
         <v>66.940712690353394</v>
       </c>
     </row>
-    <row r="336" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="336" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A336">
         <v>334</v>
       </c>
@@ -14730,7 +14753,7 @@
         <v>69.699258089065495</v>
       </c>
     </row>
-    <row r="337" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="337" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A337">
         <v>335</v>
       </c>
@@ -14759,7 +14782,7 @@
         <v>68.218456745147705</v>
       </c>
     </row>
-    <row r="338" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="338" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A338">
         <v>336</v>
       </c>
@@ -14788,7 +14811,7 @@
         <v>119.66169190406799</v>
       </c>
     </row>
-    <row r="339" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="339" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A339">
         <v>337</v>
       </c>
@@ -14817,7 +14840,7 @@
         <v>150.24826812744101</v>
       </c>
     </row>
-    <row r="340" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="340" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A340">
         <v>338</v>
       </c>
@@ -14846,7 +14869,7 @@
         <v>65.466157913207994</v>
       </c>
     </row>
-    <row r="341" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="341" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A341">
         <v>339</v>
       </c>
@@ -14875,7 +14898,7 @@
         <v>95.125059604644704</v>
       </c>
     </row>
-    <row r="342" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="342" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A342">
         <v>340</v>
       </c>
@@ -14904,7 +14927,7 @@
         <v>72.122685909271198</v>
       </c>
     </row>
-    <row r="343" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="343" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A343">
         <v>341</v>
       </c>
@@ -14933,7 +14956,7 @@
         <v>92.498013019561697</v>
       </c>
     </row>
-    <row r="344" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="344" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A344">
         <v>342</v>
       </c>
@@ -14962,7 +14985,7 @@
         <v>91.835393905639606</v>
       </c>
     </row>
-    <row r="345" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="345" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A345">
         <v>343</v>
       </c>
@@ -14991,7 +15014,7 @@
         <v>66.793150901794405</v>
       </c>
     </row>
-    <row r="346" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="346" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A346">
         <v>344</v>
       </c>
@@ -15020,7 +15043,7 @@
         <v>109.803452968597</v>
       </c>
     </row>
-    <row r="347" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="347" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A347">
         <v>345</v>
       </c>
@@ -15049,7 +15072,7 @@
         <v>57.3172671794891</v>
       </c>
     </row>
-    <row r="348" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="348" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A348">
         <v>346</v>
       </c>
@@ -15078,7 +15101,7 @@
         <v>112.141192197799</v>
       </c>
     </row>
-    <row r="349" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="349" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A349">
         <v>347</v>
       </c>
@@ -15107,7 +15130,7 @@
         <v>76.541887044906602</v>
       </c>
     </row>
-    <row r="350" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="350" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A350">
         <v>348</v>
       </c>
@@ -15136,7 +15159,7 @@
         <v>64.169095754623399</v>
       </c>
     </row>
-    <row r="351" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="351" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A351">
         <v>349</v>
       </c>
@@ -15165,7 +15188,7 @@
         <v>66.189829349517794</v>
       </c>
     </row>
-    <row r="352" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="352" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A352">
         <v>350</v>
       </c>
@@ -15194,7 +15217,7 @@
         <v>57.462435960769596</v>
       </c>
     </row>
-    <row r="353" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="353" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A353">
         <v>351</v>
       </c>
@@ -15223,7 +15246,7 @@
         <v>112.273723125457</v>
       </c>
     </row>
-    <row r="354" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="354" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A354">
         <v>352</v>
       </c>
@@ -15252,7 +15275,7 @@
         <v>98.468407630920396</v>
       </c>
     </row>
-    <row r="355" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="355" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A355">
         <v>353</v>
       </c>
@@ -15281,7 +15304,7 @@
         <v>77.494756221771198</v>
       </c>
     </row>
-    <row r="356" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="356" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A356">
         <v>354</v>
       </c>
@@ -15310,7 +15333,7 @@
         <v>66.498917818069401</v>
       </c>
     </row>
-    <row r="357" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="357" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A357">
         <v>355</v>
       </c>
@@ -15339,7 +15362,7 @@
         <v>99.083212375640798</v>
       </c>
     </row>
-    <row r="358" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="358" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A358">
         <v>356</v>
       </c>
@@ -15368,7 +15391,7 @@
         <v>84.745092630386296</v>
       </c>
     </row>
-    <row r="359" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="359" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A359">
         <v>357</v>
       </c>
@@ -15397,7 +15420,7 @@
         <v>90.812765836715698</v>
       </c>
     </row>
-    <row r="360" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="360" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A360">
         <v>358</v>
       </c>
@@ -15426,7 +15449,7 @@
         <v>88.702220201492295</v>
       </c>
     </row>
-    <row r="361" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="361" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A361">
         <v>359</v>
       </c>
@@ -15455,7 +15478,7 @@
         <v>60.698484420776303</v>
       </c>
     </row>
-    <row r="362" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="362" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A362">
         <v>360</v>
       </c>
@@ -15484,7 +15507,7 @@
         <v>61.851799011230398</v>
       </c>
     </row>
-    <row r="363" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="363" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A363">
         <v>361</v>
       </c>
@@ -15513,7 +15536,7 @@
         <v>66.892841815948401</v>
       </c>
     </row>
-    <row r="364" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="364" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A364">
         <v>362</v>
       </c>
@@ -15542,7 +15565,7 @@
         <v>65.340237617492605</v>
       </c>
     </row>
-    <row r="365" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="365" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A365">
         <v>363</v>
       </c>
@@ -15571,7 +15594,7 @@
         <v>91.183460712432804</v>
       </c>
     </row>
-    <row r="366" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="366" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A366">
         <v>364</v>
       </c>
@@ -15600,7 +15623,7 @@
         <v>76.826835393905597</v>
       </c>
     </row>
-    <row r="367" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="367" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A367">
         <v>365</v>
       </c>
@@ -15629,7 +15652,7 @@
         <v>63.8824203014373</v>
       </c>
     </row>
-    <row r="368" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="368" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A368">
         <v>366</v>
       </c>
@@ -15658,7 +15681,7 @@
         <v>69.535482406616197</v>
       </c>
     </row>
-    <row r="369" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="369" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A369">
         <v>367</v>
       </c>
@@ -15687,7 +15710,7 @@
         <v>71.633164882659898</v>
       </c>
     </row>
-    <row r="370" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="370" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A370">
         <v>368</v>
       </c>
@@ -15716,7 +15739,7 @@
         <v>72.146183013916001</v>
       </c>
     </row>
-    <row r="371" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="371" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A371">
         <v>369</v>
       </c>
@@ -15745,7 +15768,7 @@
         <v>86.001687765121403</v>
       </c>
     </row>
-    <row r="372" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="372" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A372">
         <v>370</v>
       </c>
@@ -15774,7 +15797,7 @@
         <v>96.676657199859605</v>
       </c>
     </row>
-    <row r="373" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="373" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A373">
         <v>371</v>
       </c>
@@ -15803,7 +15826,7 @@
         <v>174.38058114051799</v>
       </c>
     </row>
-    <row r="374" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="374" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A374">
         <v>372</v>
       </c>
@@ -15832,7 +15855,7 @@
         <v>65.641218662261906</v>
       </c>
     </row>
-    <row r="375" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="375" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A375">
         <v>373</v>
       </c>
@@ -15861,7 +15884,7 @@
         <v>149.18472671508701</v>
       </c>
     </row>
-    <row r="376" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="376" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A376">
         <v>374</v>
       </c>
@@ -15890,7 +15913,7 @@
         <v>86.663389205932603</v>
       </c>
     </row>
-    <row r="377" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="377" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A377">
         <v>375</v>
       </c>
@@ -15919,7 +15942,7 @@
         <v>84.597519636154104</v>
       </c>
     </row>
-    <row r="378" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="378" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A378">
         <v>376</v>
       </c>
@@ -15948,7 +15971,7 @@
         <v>55.710367679595898</v>
       </c>
     </row>
-    <row r="379" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="379" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A379">
         <v>377</v>
       </c>
@@ -15977,7 +16000,7 @@
         <v>147.77952194213799</v>
       </c>
     </row>
-    <row r="380" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="380" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A380">
         <v>378</v>
       </c>
@@ -16006,7 +16029,7 @@
         <v>65.392943620681706</v>
       </c>
     </row>
-    <row r="381" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="381" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A381">
         <v>379</v>
       </c>
@@ -16035,7 +16058,7 @@
         <v>174.58884859085001</v>
       </c>
     </row>
-    <row r="382" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="382" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A382">
         <v>380</v>
       </c>
@@ -16064,7 +16087,7 @@
         <v>72.395901679992605</v>
       </c>
     </row>
-    <row r="383" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="383" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A383">
         <v>381</v>
       </c>
@@ -16093,7 +16116,7 @@
         <v>62.660770416259702</v>
       </c>
     </row>
-    <row r="384" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="384" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A384">
         <v>382</v>
       </c>
@@ -16122,7 +16145,7 @@
         <v>61.761023759841898</v>
       </c>
     </row>
-    <row r="385" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="385" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A385">
         <v>383</v>
       </c>
@@ -16151,7 +16174,7 @@
         <v>63.2196817398071</v>
       </c>
     </row>
-    <row r="386" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="386" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A386">
         <v>384</v>
       </c>
@@ -16180,7 +16203,7 @@
         <v>73.865388870239201</v>
       </c>
     </row>
-    <row r="387" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="387" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A387">
         <v>385</v>
       </c>
@@ -16209,7 +16232,7 @@
         <v>83.412811756134005</v>
       </c>
     </row>
-    <row r="388" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="388" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A388">
         <v>386</v>
       </c>
@@ -16238,7 +16261,7 @@
         <v>54.5490593910217</v>
       </c>
     </row>
-    <row r="389" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="389" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A389">
         <v>387</v>
       </c>
@@ -16267,7 +16290,7 @@
         <v>135.65164923667899</v>
       </c>
     </row>
-    <row r="390" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="390" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A390">
         <v>388</v>
       </c>
@@ -16296,7 +16319,7 @@
         <v>61.0760948657989</v>
       </c>
     </row>
-    <row r="391" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="391" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A391">
         <v>389</v>
       </c>
@@ -16325,7 +16348,7 @@
         <v>60.799119472503598</v>
       </c>
     </row>
-    <row r="392" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="392" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A392">
         <v>390</v>
       </c>
@@ -16354,7 +16377,7 @@
         <v>64.817643404006901</v>
       </c>
     </row>
-    <row r="393" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="393" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A393">
         <v>391</v>
       </c>
@@ -16383,7 +16406,7 @@
         <v>132.41856122016901</v>
       </c>
     </row>
-    <row r="394" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="394" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A394">
         <v>392</v>
       </c>
@@ -16412,7 +16435,7 @@
         <v>58.6961057186126</v>
       </c>
     </row>
-    <row r="395" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="395" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A395">
         <v>393</v>
       </c>
@@ -16441,7 +16464,7 @@
         <v>68.685986280441199</v>
       </c>
     </row>
-    <row r="396" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="396" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A396">
         <v>394</v>
       </c>
@@ -16470,7 +16493,7 @@
         <v>73.283670902252197</v>
       </c>
     </row>
-    <row r="397" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="397" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A397">
         <v>395</v>
       </c>
@@ -16499,7 +16522,7 @@
         <v>53.811300277709897</v>
       </c>
     </row>
-    <row r="398" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="398" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A398">
         <v>396</v>
       </c>
@@ -16528,7 +16551,7 @@
         <v>68.7033305168151</v>
       </c>
     </row>
-    <row r="399" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="399" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A399">
         <v>397</v>
       </c>
@@ -16557,7 +16580,7 @@
         <v>60.686019420623701</v>
       </c>
     </row>
-    <row r="400" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="400" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A400">
         <v>398</v>
       </c>
@@ -16586,7 +16609,7 @@
         <v>58.799779891967702</v>
       </c>
     </row>
-    <row r="401" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="401" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A401">
         <v>399</v>
       </c>
@@ -16615,7 +16638,7 @@
         <v>91.8862912654876</v>
       </c>
     </row>
-    <row r="402" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="402" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A402">
         <v>400</v>
       </c>
@@ -16644,7 +16667,7 @@
         <v>64.534446954727102</v>
       </c>
     </row>
-    <row r="403" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="403" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A403">
         <v>401</v>
       </c>
@@ -16673,7 +16696,7 @@
         <v>56.727119445800703</v>
       </c>
     </row>
-    <row r="404" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="404" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A404">
         <v>402</v>
       </c>
@@ -16702,7 +16725,7 @@
         <v>66.923850774765</v>
       </c>
     </row>
-    <row r="405" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="405" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A405">
         <v>403</v>
       </c>
@@ -16731,7 +16754,7 @@
         <v>78.085070848464895</v>
       </c>
     </row>
-    <row r="406" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="406" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A406">
         <v>404</v>
       </c>
@@ -16760,7 +16783,7 @@
         <v>121.012870073318</v>
       </c>
     </row>
-    <row r="407" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="407" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A407">
         <v>405</v>
       </c>
@@ -16789,7 +16812,7 @@
         <v>57.595679759979198</v>
       </c>
     </row>
-    <row r="408" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="408" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A408">
         <v>406</v>
       </c>
@@ -16818,7 +16841,7 @@
         <v>83.745729684829698</v>
       </c>
     </row>
-    <row r="409" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="409" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A409">
         <v>407</v>
       </c>
@@ -16847,7 +16870,7 @@
         <v>59.325142621993997</v>
       </c>
     </row>
-    <row r="410" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="410" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A410">
         <v>408</v>
       </c>
@@ -16876,7 +16899,7 @@
         <v>52.859462261199901</v>
       </c>
     </row>
-    <row r="411" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="411" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A411">
         <v>409</v>
       </c>
@@ -16905,7 +16928,7 @@
         <v>92.988163232803302</v>
       </c>
     </row>
-    <row r="412" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="412" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A412">
         <v>410</v>
       </c>
@@ -16934,7 +16957,7 @@
         <v>61.2129192352294</v>
       </c>
     </row>
-    <row r="413" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="413" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A413">
         <v>411</v>
       </c>
@@ -16963,7 +16986,7 @@
         <v>48.558063268661499</v>
       </c>
     </row>
-    <row r="414" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="414" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A414">
         <v>412</v>
       </c>
@@ -16992,7 +17015,7 @@
         <v>67.322235107421804</v>
       </c>
     </row>
-    <row r="415" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="415" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A415">
         <v>413</v>
       </c>
@@ -17021,7 +17044,7 @@
         <v>58.169124603271399</v>
       </c>
     </row>
-    <row r="416" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="416" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A416">
         <v>414</v>
       </c>
@@ -17050,7 +17073,7 @@
         <v>50.785465002059901</v>
       </c>
     </row>
-    <row r="417" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="417" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A417">
         <v>415</v>
       </c>
@@ -17079,7 +17102,7 @@
         <v>54.969525575637803</v>
       </c>
     </row>
-    <row r="418" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="418" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A418">
         <v>416</v>
       </c>
@@ -17108,7 +17131,7 @@
         <v>69.807229757308903</v>
       </c>
     </row>
-    <row r="419" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="419" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A419">
         <v>417</v>
       </c>
@@ -17137,7 +17160,7 @@
         <v>102.34608054160999</v>
       </c>
     </row>
-    <row r="420" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="420" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A420">
         <v>418</v>
       </c>
@@ -17166,7 +17189,7 @@
         <v>62.629809379577601</v>
       </c>
     </row>
-    <row r="421" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="421" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A421">
         <v>419</v>
       </c>
@@ -17195,7 +17218,7 @@
         <v>65.003700971603394</v>
       </c>
     </row>
-    <row r="422" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="422" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A422">
         <v>420</v>
       </c>
@@ -17224,7 +17247,7 @@
         <v>66.348940134048405</v>
       </c>
     </row>
-    <row r="423" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="423" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A423">
         <v>421</v>
       </c>
@@ -17253,7 +17276,7 @@
         <v>53.4875102043151</v>
       </c>
     </row>
-    <row r="424" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="424" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A424">
         <v>422</v>
       </c>
@@ -17282,7 +17305,7 @@
         <v>86.291303396224905</v>
       </c>
     </row>
-    <row r="425" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="425" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A425">
         <v>423</v>
       </c>
@@ -17311,7 +17334,7 @@
         <v>55.726080179214399</v>
       </c>
     </row>
-    <row r="426" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="426" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A426">
         <v>424</v>
       </c>
@@ -17340,7 +17363,7 @@
         <v>55.030482769012401</v>
       </c>
     </row>
-    <row r="427" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="427" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A427">
         <v>425</v>
       </c>
@@ -17369,7 +17392,7 @@
         <v>82.271208047866807</v>
       </c>
     </row>
-    <row r="428" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="428" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A428">
         <v>426</v>
       </c>
@@ -17398,7 +17421,7 @@
         <v>62.374261617660501</v>
       </c>
     </row>
-    <row r="429" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="429" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A429">
         <v>427</v>
       </c>
@@ -17427,7 +17450,7 @@
         <v>52.957899808883603</v>
       </c>
     </row>
-    <row r="430" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="430" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A430">
         <v>428</v>
       </c>
@@ -17456,7 +17479,7 @@
         <v>71.925361871719304</v>
       </c>
     </row>
-    <row r="431" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="431" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A431">
         <v>429</v>
       </c>
@@ -17485,7 +17508,7 @@
         <v>45.417516469955402</v>
       </c>
     </row>
-    <row r="432" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="432" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A432">
         <v>430</v>
       </c>
@@ -17514,7 +17537,7 @@
         <v>54.557940959930399</v>
       </c>
     </row>
-    <row r="433" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="433" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A433">
         <v>431</v>
       </c>
@@ -17543,7 +17566,7 @@
         <v>55.232815027236903</v>
       </c>
     </row>
-    <row r="434" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="434" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A434">
         <v>432</v>
       </c>
@@ -17572,7 +17595,7 @@
         <v>62.754479408264103</v>
       </c>
     </row>
-    <row r="435" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="435" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A435">
         <v>433</v>
       </c>
@@ -17601,7 +17624,7 @@
         <v>125.741741180419</v>
       </c>
     </row>
-    <row r="436" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="436" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A436">
         <v>434</v>
       </c>
@@ -17630,7 +17653,7 @@
         <v>64.362601041793795</v>
       </c>
     </row>
-    <row r="437" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="437" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A437">
         <v>435</v>
       </c>
@@ -17659,7 +17682,7 @@
         <v>88.543458461761404</v>
       </c>
     </row>
-    <row r="438" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="438" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A438">
         <v>436</v>
       </c>
@@ -17688,7 +17711,7 @@
         <v>114.35947680473301</v>
       </c>
     </row>
-    <row r="439" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="439" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A439">
         <v>437</v>
       </c>
@@ -17717,7 +17740,7 @@
         <v>82.542796850204397</v>
       </c>
     </row>
-    <row r="440" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="440" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A440">
         <v>438</v>
       </c>
@@ -17746,7 +17769,7 @@
         <v>65.576803445815997</v>
       </c>
     </row>
-    <row r="441" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="441" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A441">
         <v>439</v>
       </c>
@@ -17775,7 +17798,7 @@
         <v>60.5609321594238</v>
       </c>
     </row>
-    <row r="442" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="442" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A442">
         <v>440</v>
       </c>
@@ -17804,7 +17827,7 @@
         <v>58.129752397537203</v>
       </c>
     </row>
-    <row r="443" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="443" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A443">
         <v>441</v>
       </c>
@@ -17833,7 +17856,7 @@
         <v>58.010660409927297</v>
       </c>
     </row>
-    <row r="444" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="444" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A444">
         <v>442</v>
       </c>
@@ -17862,7 +17885,7 @@
         <v>64.342696905136094</v>
       </c>
     </row>
-    <row r="445" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="445" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A445">
         <v>443</v>
       </c>
@@ -17891,7 +17914,7 @@
         <v>52.527257919311502</v>
       </c>
     </row>
-    <row r="446" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="446" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A446">
         <v>444</v>
       </c>
@@ -17920,7 +17943,7 @@
         <v>61.876707077026303</v>
       </c>
     </row>
-    <row r="447" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="447" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A447">
         <v>445</v>
       </c>
@@ -17949,7 +17972,7 @@
         <v>59.648176670074399</v>
       </c>
     </row>
-    <row r="448" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="448" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A448">
         <v>446</v>
       </c>
@@ -17978,7 +18001,7 @@
         <v>64.144169330596895</v>
       </c>
     </row>
-    <row r="449" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="449" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A449">
         <v>447</v>
       </c>
@@ -18007,7 +18030,7 @@
         <v>77.615720748901296</v>
       </c>
     </row>
-    <row r="450" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="450" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A450">
         <v>448</v>
       </c>
@@ -18036,7 +18059,7 @@
         <v>61.951667785644503</v>
       </c>
     </row>
-    <row r="451" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="451" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A451">
         <v>449</v>
       </c>
@@ -18065,7 +18088,7 @@
         <v>65.864976406097398</v>
       </c>
     </row>
-    <row r="452" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="452" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A452">
         <v>450</v>
       </c>
@@ -18094,7 +18117,7 @@
         <v>69.801343441009493</v>
       </c>
     </row>
-    <row r="453" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="453" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A453">
         <v>451</v>
       </c>
@@ -18123,7 +18146,7 @@
         <v>84.023868322372394</v>
       </c>
     </row>
-    <row r="454" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="454" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A454">
         <v>452</v>
       </c>
@@ -18152,7 +18175,7 @@
         <v>59.302956342697101</v>
       </c>
     </row>
-    <row r="455" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="455" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A455">
         <v>453</v>
       </c>
@@ -18181,7 +18204,7 @@
         <v>60.825046539306598</v>
       </c>
     </row>
-    <row r="456" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="456" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A456">
         <v>454</v>
       </c>
@@ -18210,7 +18233,7 @@
         <v>49.2611629962921</v>
       </c>
     </row>
-    <row r="457" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="457" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A457">
         <v>455</v>
       </c>
@@ -18239,7 +18262,7 @@
         <v>57.492895841598497</v>
       </c>
     </row>
-    <row r="458" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="458" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A458">
         <v>456</v>
       </c>
@@ -18268,7 +18291,7 @@
         <v>54.636966705322202</v>
       </c>
     </row>
-    <row r="459" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="459" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A459">
         <v>457</v>
       </c>
@@ -18297,7 +18320,7 @@
         <v>100.890861034393</v>
       </c>
     </row>
-    <row r="460" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="460" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A460">
         <v>458</v>
       </c>
@@ -18326,7 +18349,7 @@
         <v>75.334219455718994</v>
       </c>
     </row>
-    <row r="461" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="461" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A461">
         <v>459</v>
       </c>
@@ -18355,7 +18378,7 @@
         <v>96.145841121673499</v>
       </c>
     </row>
-    <row r="462" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="462" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A462">
         <v>460</v>
       </c>
@@ -18384,7 +18407,7 @@
         <v>103.26085996627801</v>
       </c>
     </row>
-    <row r="463" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="463" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A463">
         <v>461</v>
       </c>
@@ -18413,7 +18436,7 @@
         <v>631.31024932861305</v>
       </c>
     </row>
-    <row r="464" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="464" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A464">
         <v>462</v>
       </c>
@@ -18442,7 +18465,7 @@
         <v>66.7209153175354</v>
       </c>
     </row>
-    <row r="465" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="465" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A465">
         <v>463</v>
       </c>
@@ -18471,7 +18494,7 @@
         <v>70.659624099731403</v>
       </c>
     </row>
-    <row r="466" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="466" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A466">
         <v>464</v>
       </c>
@@ -18500,7 +18523,7 @@
         <v>66.973705530166598</v>
       </c>
     </row>
-    <row r="467" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="467" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A467">
         <v>465</v>
       </c>
@@ -18529,7 +18552,7 @@
         <v>67.842088937759399</v>
       </c>
     </row>
-    <row r="468" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="468" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A468">
         <v>466</v>
       </c>
@@ -18558,7 +18581,7 @@
         <v>93.131656646728501</v>
       </c>
     </row>
-    <row r="469" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="469" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A469">
         <v>467</v>
       </c>
@@ -18587,7 +18610,7 @@
         <v>75.8868794441223</v>
       </c>
     </row>
-    <row r="470" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="470" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A470">
         <v>468</v>
       </c>
@@ -18616,7 +18639,7 @@
         <v>112.20577263832</v>
       </c>
     </row>
-    <row r="471" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="471" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A471">
         <v>469</v>
       </c>
@@ -18645,7 +18668,7 @@
         <v>81.2793288230896</v>
       </c>
     </row>
-    <row r="472" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="472" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A472">
         <v>470</v>
       </c>
@@ -18674,7 +18697,7 @@
         <v>65.515286207199097</v>
       </c>
     </row>
-    <row r="473" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="473" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A473">
         <v>471</v>
       </c>
@@ -18703,7 +18726,7 @@
         <v>74.167345046996999</v>
       </c>
     </row>
-    <row r="474" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="474" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A474">
         <v>472</v>
       </c>
@@ -18732,7 +18755,7 @@
         <v>66.046254158020005</v>
       </c>
     </row>
-    <row r="475" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="475" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A475">
         <v>473</v>
       </c>
@@ -18761,7 +18784,7 @@
         <v>53.517291784286499</v>
       </c>
     </row>
-    <row r="476" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="476" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A476">
         <v>474</v>
       </c>
@@ -18790,7 +18813,7 @@
         <v>70.690706014633093</v>
       </c>
     </row>
-    <row r="477" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="477" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A477">
         <v>475</v>
       </c>
@@ -18819,7 +18842,7 @@
         <v>71.798030853271399</v>
       </c>
     </row>
-    <row r="478" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="478" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A478">
         <v>476</v>
       </c>
@@ -18848,7 +18871,7 @@
         <v>91.346041202545095</v>
       </c>
     </row>
-    <row r="479" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="479" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A479">
         <v>477</v>
       </c>
@@ -18877,7 +18900,7 @@
         <v>74.546791791915894</v>
       </c>
     </row>
-    <row r="480" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="480" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A480">
         <v>478</v>
       </c>
@@ -18906,7 +18929,7 @@
         <v>80.8915243148803</v>
       </c>
     </row>
-    <row r="481" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="481" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A481">
         <v>479</v>
       </c>
@@ -18935,7 +18958,7 @@
         <v>73.235283136367798</v>
       </c>
     </row>
-    <row r="482" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="482" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A482">
         <v>480</v>
       </c>
@@ -18964,7 +18987,7 @@
         <v>70.873957395553504</v>
       </c>
     </row>
-    <row r="483" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="483" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A483">
         <v>481</v>
       </c>
@@ -18993,7 +19016,7 @@
         <v>70.067693948745699</v>
       </c>
     </row>
-    <row r="484" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="484" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A484">
         <v>482</v>
       </c>
@@ -19022,7 +19045,7 @@
         <v>73.468122720718299</v>
       </c>
     </row>
-    <row r="485" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="485" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A485">
         <v>483</v>
       </c>
@@ -19051,7 +19074,7 @@
         <v>72.405662059783893</v>
       </c>
     </row>
-    <row r="486" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="486" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A486">
         <v>484</v>
       </c>
@@ -19080,7 +19103,7 @@
         <v>155.65993809700001</v>
       </c>
     </row>
-    <row r="487" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="487" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A487">
         <v>485</v>
       </c>
@@ -19109,7 +19132,7 @@
         <v>58.866813898086498</v>
       </c>
     </row>
-    <row r="488" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="488" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A488">
         <v>486</v>
       </c>
@@ -19138,7 +19161,7 @@
         <v>67.234745025634695</v>
       </c>
     </row>
-    <row r="489" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="489" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A489">
         <v>487</v>
       </c>
@@ -19167,7 +19190,7 @@
         <v>61.389538049697798</v>
       </c>
     </row>
-    <row r="490" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="490" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A490">
         <v>488</v>
       </c>
@@ -19196,7 +19219,7 @@
         <v>70.312696456909094</v>
       </c>
     </row>
-    <row r="491" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="491" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A491">
         <v>489</v>
       </c>
@@ -19225,7 +19248,7 @@
         <v>62.449995517730699</v>
       </c>
     </row>
-    <row r="492" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="492" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A492">
         <v>490</v>
       </c>
@@ -19254,7 +19277,7 @@
         <v>100.99552702903701</v>
       </c>
     </row>
-    <row r="493" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="493" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A493">
         <v>491</v>
       </c>
@@ -19283,7 +19306,7 @@
         <v>77.1528577804565</v>
       </c>
     </row>
-    <row r="494" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="494" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A494">
         <v>492</v>
       </c>
@@ -19312,7 +19335,7 @@
         <v>90.427459001541095</v>
       </c>
     </row>
-    <row r="495" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="495" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A495">
         <v>493</v>
       </c>
@@ -19341,7 +19364,7 @@
         <v>80.504846096038804</v>
       </c>
     </row>
-    <row r="496" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="496" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A496">
         <v>494</v>
       </c>
@@ -19370,7 +19393,7 @@
         <v>56.686194419860797</v>
       </c>
     </row>
-    <row r="497" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="497" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A497">
         <v>495</v>
       </c>
@@ -19399,7 +19422,7 @@
         <v>64.329798698425293</v>
       </c>
     </row>
-    <row r="498" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="498" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A498">
         <v>496</v>
       </c>
@@ -19428,7 +19451,7 @@
         <v>67.946840763091998</v>
       </c>
     </row>
-    <row r="499" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="499" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A499">
         <v>497</v>
       </c>
@@ -19457,7 +19480,7 @@
         <v>61.4743137359619</v>
       </c>
     </row>
-    <row r="500" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="500" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A500">
         <v>498</v>
       </c>
@@ -19486,7 +19509,7 @@
         <v>64.4933633804321</v>
       </c>
     </row>
-    <row r="501" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="501" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A501">
         <v>499</v>
       </c>
